--- a/branches/master/ValueSet-vs-reason-sample-cancelled-or-rejected.xlsx
+++ b/branches/master/ValueSet-vs-reason-sample-cancelled-or-rejected.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-01T08:13:34+00:00</t>
+    <t>2023-03-02T06:11:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/ValueSet-vs-reason-sample-cancelled-or-rejected.xlsx
+++ b/branches/master/ValueSet-vs-reason-sample-cancelled-or-rejected.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-02T06:11:23+00:00</t>
+    <t>2023-03-02T06:38:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/ValueSet-vs-reason-sample-cancelled-or-rejected.xlsx
+++ b/branches/master/ValueSet-vs-reason-sample-cancelled-or-rejected.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-02T06:38:00+00:00</t>
+    <t>2023-03-03T10:25:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/ValueSet-vs-reason-sample-cancelled-or-rejected.xlsx
+++ b/branches/master/ValueSet-vs-reason-sample-cancelled-or-rejected.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-03T10:25:55+00:00</t>
+    <t>2023-03-03T14:03:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/ValueSet-vs-reason-sample-cancelled-or-rejected.xlsx
+++ b/branches/master/ValueSet-vs-reason-sample-cancelled-or-rejected.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-03T14:03:01+00:00</t>
+    <t>2023-03-03T14:47:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/ValueSet-vs-reason-sample-cancelled-or-rejected.xlsx
+++ b/branches/master/ValueSet-vs-reason-sample-cancelled-or-rejected.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-03T14:47:25+00:00</t>
+    <t>2023-03-03T15:27:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/ValueSet-vs-reason-sample-cancelled-or-rejected.xlsx
+++ b/branches/master/ValueSet-vs-reason-sample-cancelled-or-rejected.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-03T15:27:50+00:00</t>
+    <t>2023-03-03T16:14:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/ValueSet-vs-reason-sample-cancelled-or-rejected.xlsx
+++ b/branches/master/ValueSet-vs-reason-sample-cancelled-or-rejected.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-03T16:14:01+00:00</t>
+    <t>2023-03-04T09:00:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/ValueSet-vs-reason-sample-cancelled-or-rejected.xlsx
+++ b/branches/master/ValueSet-vs-reason-sample-cancelled-or-rejected.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-04T09:00:22+00:00</t>
+    <t>2023-03-07T16:19:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/ValueSet-vs-reason-sample-cancelled-or-rejected.xlsx
+++ b/branches/master/ValueSet-vs-reason-sample-cancelled-or-rejected.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-07T16:19:15+00:00</t>
+    <t>2023-03-07T17:24:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/ValueSet-vs-reason-sample-cancelled-or-rejected.xlsx
+++ b/branches/master/ValueSet-vs-reason-sample-cancelled-or-rejected.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-07T17:24:01+00:00</t>
+    <t>2023-03-08T15:33:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/ValueSet-vs-reason-sample-cancelled-or-rejected.xlsx
+++ b/branches/master/ValueSet-vs-reason-sample-cancelled-or-rejected.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-08T15:33:26+00:00</t>
+    <t>2023-04-04T11:11:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
